--- a/PROJECT/TEST3.xlsx
+++ b/PROJECT/TEST3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t xml:space="preserve">NOM</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve">Incoeclty detected CEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cedas</t>
   </si>
   <si>
     <t xml:space="preserve">Pecentage Detection </t>
@@ -461,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O59" activeCellId="0" sqref="O59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,6 +1828,9 @@
         <v>25</v>
       </c>
       <c r="M53" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N53" s="0" t="n">
         <v>12</v>
       </c>
       <c r="P53" s="1" t="s">
@@ -1867,11 +1876,14 @@
       <c r="M54" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="O54" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="P54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R54" s="0" t="n">
         <v>24</v>
@@ -2027,28 +2039,34 @@
       <c r="G63" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="J63" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="0" t="n">
         <f aca="false">(F62)/(F62+F64)*100</f>
-        <v>77.5862068965517</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="G68" s="0" t="n">
         <f aca="false">(G62)/(G62+G64)*100</f>
-        <v>70.6896551724138</v>
+        <v>73.2142857142857</v>
       </c>
     </row>
   </sheetData>
